--- a/Z_excels/boxes.xlsx
+++ b/Z_excels/boxes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rango\Desktop\1_Blaster\Z_excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E6272F-1BA8-441D-B31F-AD68E797FEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B424499-C5EB-4BCF-88D3-D651818FEB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F89ABE20-9FFA-400B-82A7-BF1D8ECD0D50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F89ABE20-9FFA-400B-82A7-BF1D8ECD0D50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="20">
   <si>
     <t>UPROPERTY( VisibleAnywhere)</t>
   </si>
@@ -421,6 +422,141 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>354000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>111240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>364080</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>118800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD7720C-F2FF-4E47-BC51-256DC6A26773}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7059600" y="2397240"/>
+            <a:ext cx="10080" cy="7560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D16D5F9-1EF4-467E-901F-06AADFBD085B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7050600" y="2388240"/>
+              <a:ext cx="27720" cy="25200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>232680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>13020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234120</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14460</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0C8F2F-75BE-406A-934A-EE3135DCADDB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6938280" y="2108520"/>
+            <a:ext cx="1440" cy="1440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62FAC25-2939-4C3C-ACC5-BCE82E321F74}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6929280" y="2099880"/>
+              <a:ext cx="19080" cy="19080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -535,6 +671,68 @@
         </inkml:channelProperties>
       </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2024-12-08T08:50:43.680"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3 1 2260 0 0,'0'0'15711'0'0,"-3"2"-16141"0"0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-12-10T09:45:55.224"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27 0 2612 0 0,'0'0'2939'0'0,"-19"15"7338"0"0,11-10-12298 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-12-10T09:45:55.225"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -1369,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3367A876-0A4F-4BD1-A7B7-AAEB9222188E}">
   <dimension ref="B1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
@@ -2009,4 +2207,758 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C31A4F-A7A5-4365-8694-A1DEB2ED94CA}">
+  <dimension ref="B1:I114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f>"BoxComponentMap.Add(FName(" &amp; B8</f>
+        <v>BoxComponentMap.Add(FName(head</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <f>B8&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B8&amp;""") );"</f>
+        <v>head = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("head") );</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B8 &amp; ";"</f>
+        <v>UBoxComponent* head;</v>
+      </c>
+      <c r="F9" t="str">
+        <f>B8 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B8 &amp;"""));"</f>
+        <v>head-&gt;SetupAttachment( GetMesh(), FName("head"));</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <f>B8 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>head-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="str">
+        <f>B8 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>head-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B8 &amp; """" &amp; ") , " &amp; B8 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("head") , head );</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <f>B14&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B14&amp;""") );"</f>
+        <v>pelvis = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("pelvis") );</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B14 &amp; ";"</f>
+        <v>UBoxComponent* pelvis;</v>
+      </c>
+      <c r="F15" t="str">
+        <f>B14 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B14 &amp;"""));"</f>
+        <v>pelvis-&gt;SetupAttachment( GetMesh(), FName("pelvis"));</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <f>B14 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>pelvis-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="str">
+        <f>B14 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>pelvis-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B14 &amp; """" &amp; ") , " &amp; B14 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("pelvis") , pelvis );</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <f>B20&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B20&amp;""") );"</f>
+        <v>spine_02 = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("spine_02") );</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B20 &amp; ";"</f>
+        <v>UBoxComponent* spine_02;</v>
+      </c>
+      <c r="F21" t="str">
+        <f>B20 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B20 &amp;"""));"</f>
+        <v>spine_02-&gt;SetupAttachment( GetMesh(), FName("spine_02"));</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <f>B20 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>spine_02-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="str">
+        <f>B20 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>spine_02-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B20 &amp; """" &amp; ") , " &amp; B20 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("spine_02") , spine_02 );</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <f>B26&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B26&amp;""") );"</f>
+        <v>spine_03 = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("spine_03") );</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B26 &amp; ";"</f>
+        <v>UBoxComponent* spine_03;</v>
+      </c>
+      <c r="F27" t="str">
+        <f>B26 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B26 &amp;"""));"</f>
+        <v>spine_03-&gt;SetupAttachment( GetMesh(), FName("spine_03"));</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <f>B26 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>spine_03-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="str">
+        <f>B26 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>spine_03-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B26 &amp; """" &amp; ") , " &amp; B26 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("spine_03") , spine_03 );</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" t="str">
+        <f>B32&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B32&amp;""") );"</f>
+        <v>backpack = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("backpack") );</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B32 &amp; ";"</f>
+        <v>UBoxComponent* backpack;</v>
+      </c>
+      <c r="F33" t="str">
+        <f>B32 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B32 &amp;"""));"</f>
+        <v>backpack-&gt;SetupAttachment( GetMesh(), FName("backpack"));</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="str">
+        <f>B32 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>backpack-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="2" t="str">
+        <f>B32 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>backpack-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B32 &amp; """" &amp; ") , " &amp; B32 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("backpack") , backpack );</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" t="str">
+        <f>B38&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B38&amp;""") );"</f>
+        <v>blanket_l = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("blanket_l") );</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B38 &amp; ";"</f>
+        <v>UBoxComponent* blanket_l;</v>
+      </c>
+      <c r="F39" t="str">
+        <f>B38 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B38 &amp;"""));"</f>
+        <v>blanket_l-&gt;SetupAttachment( GetMesh(), FName("blanket_l"));</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F40" t="str">
+        <f>B38 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>blanket_l-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="2" t="str">
+        <f>B38 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>blanket_l-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B38 &amp; """" &amp; ") , " &amp; B38 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("blanket_l") , blanket_l );</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" t="str">
+        <f>B44&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B44&amp;""") );"</f>
+        <v>upperarm_l = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("upperarm_l") );</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B44 &amp; ";"</f>
+        <v>UBoxComponent* upperarm_l;</v>
+      </c>
+      <c r="F45" t="str">
+        <f>B44 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B44 &amp;"""));"</f>
+        <v>upperarm_l-&gt;SetupAttachment( GetMesh(), FName("upperarm_l"));</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F46" t="str">
+        <f>B44 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>upperarm_l-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="2" t="str">
+        <f>B44 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>upperarm_l-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B44 &amp; """" &amp; ") , " &amp; B44 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("upperarm_l") , upperarm_l );</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" t="str">
+        <f>B50&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B50&amp;""") );"</f>
+        <v>lowerarm_l = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("lowerarm_l") );</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B50 &amp; ";"</f>
+        <v>UBoxComponent* lowerarm_l;</v>
+      </c>
+      <c r="F51" t="str">
+        <f>B50 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B50 &amp;"""));"</f>
+        <v>lowerarm_l-&gt;SetupAttachment( GetMesh(), FName("lowerarm_l"));</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F52" t="str">
+        <f>B50 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>lowerarm_l-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="2" t="str">
+        <f>B50 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>lowerarm_l-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B50 &amp; """" &amp; ") , " &amp; B50 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("lowerarm_l") , lowerarm_l );</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" t="str">
+        <f>B56&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B56&amp;""") );"</f>
+        <v>hand_l = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("hand_l") );</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B56 &amp; ";"</f>
+        <v>UBoxComponent* hand_l;</v>
+      </c>
+      <c r="F57" t="str">
+        <f>B56 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B56 &amp;"""));"</f>
+        <v>hand_l-&gt;SetupAttachment( GetMesh(), FName("hand_l"));</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F58" t="str">
+        <f>B56 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>hand_l-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="2" t="str">
+        <f>B56 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>hand_l-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B56 &amp; """" &amp; ") , " &amp; B56 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("hand_l") , hand_l );</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" t="str">
+        <f>B62&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B62&amp;""") );"</f>
+        <v>upperarm_r = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("upperarm_r") );</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B62 &amp; ";"</f>
+        <v>UBoxComponent* upperarm_r;</v>
+      </c>
+      <c r="F63" t="str">
+        <f>B62 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B62 &amp;"""));"</f>
+        <v>upperarm_r-&gt;SetupAttachment( GetMesh(), FName("upperarm_r"));</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F64" t="str">
+        <f>B62 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>upperarm_r-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="2" t="str">
+        <f>B62 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>upperarm_r-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B62 &amp; """" &amp; ") , " &amp; B62 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("upperarm_r") , upperarm_r );</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" t="str">
+        <f>B68&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B68&amp;""") );"</f>
+        <v>lowerarm_r = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("lowerarm_r") );</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B68 &amp; ";"</f>
+        <v>UBoxComponent* lowerarm_r;</v>
+      </c>
+      <c r="F69" t="str">
+        <f>B68 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B68 &amp;"""));"</f>
+        <v>lowerarm_r-&gt;SetupAttachment( GetMesh(), FName("lowerarm_r"));</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F70" t="str">
+        <f>B68 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>lowerarm_r-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="2" t="str">
+        <f>B68 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>lowerarm_r-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B68 &amp; """" &amp; ") , " &amp; B68 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("lowerarm_r") , lowerarm_r );</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" t="str">
+        <f>B74&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B74&amp;""") );"</f>
+        <v>hand_r = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("hand_r") );</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B74 &amp; ";"</f>
+        <v>UBoxComponent* hand_r;</v>
+      </c>
+      <c r="F75" t="str">
+        <f>B74 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B74 &amp;"""));"</f>
+        <v>hand_r-&gt;SetupAttachment( GetMesh(), FName("hand_r"));</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F76" t="str">
+        <f>B74 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>hand_r-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="2" t="str">
+        <f>B74 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>hand_r-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B74 &amp; """" &amp; ") , " &amp; B74 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("hand_r") , hand_r );</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" t="str">
+        <f>B80&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B80&amp;""") );"</f>
+        <v>thigh_l = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("thigh_l") );</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B80 &amp; ";"</f>
+        <v>UBoxComponent* thigh_l;</v>
+      </c>
+      <c r="F81" t="str">
+        <f>B80 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B80 &amp;"""));"</f>
+        <v>thigh_l-&gt;SetupAttachment( GetMesh(), FName("thigh_l"));</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F82" t="str">
+        <f>B80 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>thigh_l-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="2" t="str">
+        <f>B80 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>thigh_l-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B80 &amp; """" &amp; ") , " &amp; B80 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("thigh_l") , thigh_l );</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" t="str">
+        <f>B86&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B86&amp;""") );"</f>
+        <v>calf_l = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("calf_l") );</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B86 &amp; ";"</f>
+        <v>UBoxComponent* calf_l;</v>
+      </c>
+      <c r="F87" t="str">
+        <f>B86 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B86 &amp;"""));"</f>
+        <v>calf_l-&gt;SetupAttachment( GetMesh(), FName("calf_l"));</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F88" t="str">
+        <f>B86 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>calf_l-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="2" t="str">
+        <f>B86 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>calf_l-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B86 &amp; """" &amp; ") , " &amp; B86 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("calf_l") , calf_l );</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" t="str">
+        <f>B92&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B92&amp;""") );"</f>
+        <v>foot_l = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("foot_l") );</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B92 &amp; ";"</f>
+        <v>UBoxComponent* foot_l;</v>
+      </c>
+      <c r="F93" t="str">
+        <f>B92 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B92 &amp;"""));"</f>
+        <v>foot_l-&gt;SetupAttachment( GetMesh(), FName("foot_l"));</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F94" t="str">
+        <f>B92 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>foot_l-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="2" t="str">
+        <f>B92 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>foot_l-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B92 &amp; """" &amp; ") , " &amp; B92 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("foot_l") , foot_l );</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" t="str">
+        <f>B98&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B98&amp;""") );"</f>
+        <v>thigh_r = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("thigh_r") );</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B98 &amp; ";"</f>
+        <v>UBoxComponent* thigh_r;</v>
+      </c>
+      <c r="F99" t="str">
+        <f>B98 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B98 &amp;"""));"</f>
+        <v>thigh_r-&gt;SetupAttachment( GetMesh(), FName("thigh_r"));</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F100" t="str">
+        <f>B98 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>thigh_r-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="2" t="str">
+        <f>B98 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>thigh_r-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B98 &amp; """" &amp; ") , " &amp; B98 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("thigh_r") , thigh_r );</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" t="str">
+        <f>B104&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B104&amp;""") );"</f>
+        <v>calf_r = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("calf_r") );</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B104 &amp; ";"</f>
+        <v>UBoxComponent* calf_r;</v>
+      </c>
+      <c r="F105" t="str">
+        <f>B104 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B104 &amp;"""));"</f>
+        <v>calf_r-&gt;SetupAttachment( GetMesh(), FName("calf_r"));</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F106" t="str">
+        <f>B104 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>calf_r-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="2" t="str">
+        <f>B104 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>calf_r-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B104 &amp; """" &amp; ") , " &amp; B104 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("calf_r") , calf_r );</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" t="str">
+        <f>B110&amp;" = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("""&amp;B110&amp;""") );"</f>
+        <v>foot_r = CreateDefaultSubobject&lt;UBoxComponent&gt;( TEXT("foot_r") );</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C111" s="1" t="str">
+        <f>"UBoxComponent* " &amp;B110 &amp; ";"</f>
+        <v>UBoxComponent* foot_r;</v>
+      </c>
+      <c r="F111" t="str">
+        <f>B110 &amp; "-&gt;SetupAttachment( GetMesh(), FName(" &amp; """" &amp; B110 &amp;"""));"</f>
+        <v>foot_r-&gt;SetupAttachment( GetMesh(), FName("foot_r"));</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F112" t="str">
+        <f>B110 &amp; "-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);"</f>
+        <v>foot_r-&gt;SetCollisionEnabled(ECollisionEnabled::NoCollision);</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="2" t="str">
+        <f>B110 &amp; "-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);"</f>
+        <v>foot_r-&gt;SetCollisionResponseToChannel(ECollisionChannel::ECC_Visibility, ECollisionResponse::ECR_Block);</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="2" t="str">
+        <f xml:space="preserve"> "BoxComponentMap.Add(FName(" &amp; """"  &amp; B110 &amp; """" &amp; ") , " &amp; B110 &amp; " );"</f>
+        <v>BoxComponentMap.Add(FName("foot_r") , foot_r );</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>